--- a/Touchstone2/simulated_data.xlsx
+++ b/Touchstone2/simulated_data.xlsx
@@ -457,842 +457,842 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5382.682572032532</v>
+        <v>4183.997964392501</v>
       </c>
       <c r="B2" t="n">
-        <v>327.5788934326397</v>
+        <v>339.8770259539482</v>
       </c>
       <c r="C2" t="n">
-        <v>217.1495674258062</v>
+        <v>145.6179895915934</v>
       </c>
       <c r="D2" t="n">
-        <v>155.115349422957</v>
+        <v>171.6390628165296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4755.170042233862</v>
+        <v>4802.930819239951</v>
       </c>
       <c r="B3" t="n">
-        <v>309.8332717337354</v>
+        <v>284.4180942577647</v>
       </c>
       <c r="C3" t="n">
-        <v>174.8417009717605</v>
+        <v>200.3209279978428</v>
       </c>
       <c r="D3" t="n">
-        <v>156.6937673009077</v>
+        <v>149.3553366990938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4925.042734657362</v>
+        <v>5307.628313950999</v>
       </c>
       <c r="B4" t="n">
-        <v>319.2106918839122</v>
+        <v>289.8628745767161</v>
       </c>
       <c r="C4" t="n">
-        <v>211.2894156650868</v>
+        <v>240.3788832332299</v>
       </c>
       <c r="D4" t="n">
-        <v>164.4315006421228</v>
+        <v>153.6825600763833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3201.412299113364</v>
+        <v>4235.895220995745</v>
       </c>
       <c r="B5" t="n">
-        <v>278.8411686029967</v>
+        <v>268.5462458511672</v>
       </c>
       <c r="C5" t="n">
-        <v>167.6372774102404</v>
+        <v>193.2232769323498</v>
       </c>
       <c r="D5" t="n">
-        <v>190.0538789077033</v>
+        <v>157.9546635178883</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4923.482792441878</v>
+        <v>3207.615118787027</v>
       </c>
       <c r="B6" t="n">
-        <v>266.7712158572547</v>
+        <v>217.8627165167376</v>
       </c>
       <c r="C6" t="n">
-        <v>235.7181627131953</v>
+        <v>181.7999153081237</v>
       </c>
       <c r="D6" t="n">
-        <v>144.793637120258</v>
+        <v>163.3928629556814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4670.021559232498</v>
+        <v>5460.01416975</v>
       </c>
       <c r="B7" t="n">
-        <v>264.8715047135636</v>
+        <v>275.6419452026545</v>
       </c>
       <c r="C7" t="n">
-        <v>214.8578824869165</v>
+        <v>211.2786784888538</v>
       </c>
       <c r="D7" t="n">
-        <v>147.1761840944093</v>
+        <v>127.7123672096911</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5038.789066150443</v>
+        <v>4729.444924191721</v>
       </c>
       <c r="B8" t="n">
-        <v>375.4721162290452</v>
+        <v>225.636735955958</v>
       </c>
       <c r="C8" t="n">
-        <v>154.3035845412946</v>
+        <v>230.7678827308446</v>
       </c>
       <c r="D8" t="n">
-        <v>174.5557543875804</v>
+        <v>137.8461951307728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5441.499572176397</v>
+        <v>5763.487540072081</v>
       </c>
       <c r="B9" t="n">
-        <v>346.8781228967489</v>
+        <v>281.5791864892651</v>
       </c>
       <c r="C9" t="n">
-        <v>207.8780574064823</v>
+        <v>238.1559315397983</v>
       </c>
       <c r="D9" t="n">
-        <v>160.3972523041813</v>
+        <v>132.7885586095901</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3899.05182571867</v>
+        <v>4005.100389293807</v>
       </c>
       <c r="B10" t="n">
-        <v>284.49648659147</v>
+        <v>269.7257029403329</v>
       </c>
       <c r="C10" t="n">
-        <v>160.0545168329367</v>
+        <v>177.5508572971512</v>
       </c>
       <c r="D10" t="n">
-        <v>168.4357740413253</v>
+        <v>158.9240956328148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4212.916184953863</v>
+        <v>5316.005401645497</v>
       </c>
       <c r="B11" t="n">
-        <v>214.7148843457496</v>
+        <v>347.9975358683374</v>
       </c>
       <c r="C11" t="n">
-        <v>204.543034106921</v>
+        <v>188.6926432053291</v>
       </c>
       <c r="D11" t="n">
-        <v>135.1029417591004</v>
+        <v>157.0273936359837</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4707.41199625973</v>
+        <v>4741.710343547656</v>
       </c>
       <c r="B12" t="n">
-        <v>321.1988835944104</v>
+        <v>275.440922182457</v>
       </c>
       <c r="C12" t="n">
-        <v>186.5553393348204</v>
+        <v>175.1410711063918</v>
       </c>
       <c r="D12" t="n">
-        <v>166.5078211023041</v>
+        <v>135.1167439892275</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4213.115297327453</v>
+        <v>4684.33647121434</v>
       </c>
       <c r="B13" t="n">
-        <v>277.426343805426</v>
+        <v>324.3637047326682</v>
       </c>
       <c r="C13" t="n">
-        <v>217.6712337879206</v>
+        <v>181.8230192229595</v>
       </c>
       <c r="D13" t="n">
-        <v>168.5291684224045</v>
+        <v>164.0814822042272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5820.74810413438</v>
+        <v>7653.82336983379</v>
       </c>
       <c r="B14" t="n">
-        <v>373.2803866885408</v>
+        <v>475.801821374818</v>
       </c>
       <c r="C14" t="n">
-        <v>204.349473321421</v>
+        <v>210.5076500367769</v>
       </c>
       <c r="D14" t="n">
-        <v>160.1938024782867</v>
+        <v>148.6673469754573</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5588.242670138645</v>
+        <v>4841.187744523743</v>
       </c>
       <c r="B15" t="n">
-        <v>363.3813109878112</v>
+        <v>320.4344663178875</v>
       </c>
       <c r="C15" t="n">
-        <v>192.0859655657946</v>
+        <v>134.2856201157396</v>
       </c>
       <c r="D15" t="n">
-        <v>159.9602310402356</v>
+        <v>134.0863446006832</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3987.692550440808</v>
+        <v>5488.24291847207</v>
       </c>
       <c r="B16" t="n">
-        <v>270.7899744024971</v>
+        <v>325.6988024978548</v>
       </c>
       <c r="C16" t="n">
-        <v>218.0335866467891</v>
+        <v>174.8624074659645</v>
       </c>
       <c r="D16" t="n">
-        <v>172.6767714903395</v>
+        <v>133.5686808483513</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5284.054433330703</v>
+        <v>5791.573837215479</v>
       </c>
       <c r="B17" t="n">
-        <v>264.9952340192227</v>
+        <v>293.866338657123</v>
       </c>
       <c r="C17" t="n">
-        <v>197.5419896441221</v>
+        <v>193.9165594124365</v>
       </c>
       <c r="D17" t="n">
-        <v>123.2392839109455</v>
+        <v>116.7054470581507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3853.303109668392</v>
+        <v>6393.957440524506</v>
       </c>
       <c r="B18" t="n">
-        <v>260.3188710961539</v>
+        <v>344.8456726550759</v>
       </c>
       <c r="C18" t="n">
-        <v>205.6106641618405</v>
+        <v>201.3862045393949</v>
       </c>
       <c r="D18" t="n">
-        <v>169.0484111948394</v>
+        <v>124.2906234230692</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7561.062624879351</v>
+        <v>3844.476381341521</v>
       </c>
       <c r="B19" t="n">
-        <v>424.7888406310755</v>
+        <v>229.856340720627</v>
       </c>
       <c r="C19" t="n">
-        <v>206.2891031844134</v>
+        <v>145.9942001672023</v>
       </c>
       <c r="D19" t="n">
-        <v>129.400711712008</v>
+        <v>130.0867694754717</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4814.993930670201</v>
+        <v>3728.004178736171</v>
       </c>
       <c r="B20" t="n">
-        <v>263.7190311384608</v>
+        <v>294.2925835101911</v>
       </c>
       <c r="C20" t="n">
-        <v>192.1940326921124</v>
+        <v>188.815513261219</v>
       </c>
       <c r="D20" t="n">
-        <v>136.416823522469</v>
+        <v>185.9080719088816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5111.165568062335</v>
+        <v>4653.842913897428</v>
       </c>
       <c r="B21" t="n">
-        <v>240.5602191256629</v>
+        <v>349.8714702172574</v>
       </c>
       <c r="C21" t="n">
-        <v>236.776360615874</v>
+        <v>149.1868092937349</v>
       </c>
       <c r="D21" t="n">
-        <v>126.3127042129135</v>
+        <v>161.9862965404321</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4296.525602075888</v>
+        <v>6159.33942011141</v>
       </c>
       <c r="B22" t="n">
-        <v>300.3714011522758</v>
+        <v>336.07380231384</v>
       </c>
       <c r="C22" t="n">
-        <v>154.8862837265631</v>
+        <v>197.484190930842</v>
       </c>
       <c r="D22" t="n">
-        <v>162.1502436862596</v>
+        <v>126.2475001992578</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2704.087627772597</v>
+        <v>4480.178564410821</v>
       </c>
       <c r="B23" t="n">
-        <v>177.6761005813796</v>
+        <v>355.1868118412111</v>
       </c>
       <c r="C23" t="n">
-        <v>191.3207437119741</v>
+        <v>115.8455700062837</v>
       </c>
       <c r="D23" t="n">
-        <v>162.5549053750599</v>
+        <v>154.6888663777746</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5522.315829435382</v>
+        <v>6024.831251206691</v>
       </c>
       <c r="B24" t="n">
-        <v>327.4888905906142</v>
+        <v>301.704388040833</v>
       </c>
       <c r="C24" t="n">
-        <v>238.0899417513762</v>
+        <v>254.7585125977538</v>
       </c>
       <c r="D24" t="n">
-        <v>155.5423800378882</v>
+        <v>141.5114800718186</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4285.432134486528</v>
+        <v>4996.398591338498</v>
       </c>
       <c r="B25" t="n">
-        <v>234.9006195607639</v>
+        <v>248.6627862687093</v>
       </c>
       <c r="C25" t="n">
-        <v>195.9433857388748</v>
+        <v>204.1283517919147</v>
       </c>
       <c r="D25" t="n">
-        <v>140.5147258413905</v>
+        <v>127.1776018700035</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4948.43216045187</v>
+        <v>5488.700932565435</v>
       </c>
       <c r="B26" t="n">
-        <v>253.3792277351637</v>
+        <v>293.27182129078</v>
       </c>
       <c r="C26" t="n">
-        <v>233.2761930650293</v>
+        <v>198.2391720952879</v>
       </c>
       <c r="D26" t="n">
-        <v>136.9013355732989</v>
+        <v>128.9359866278049</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4882.876888407702</v>
+        <v>3874.91338159789</v>
       </c>
       <c r="B27" t="n">
-        <v>302.6461976530916</v>
+        <v>219.5366126256114</v>
       </c>
       <c r="C27" t="n">
-        <v>236.478553117605</v>
+        <v>197.7313522844315</v>
       </c>
       <c r="D27" t="n">
-        <v>163.7880120851488</v>
+        <v>148.7248245086496</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6805.250747531058</v>
+        <v>3693.457543500582</v>
       </c>
       <c r="B28" t="n">
-        <v>387.6997404312222</v>
+        <v>250.2610594420158</v>
       </c>
       <c r="C28" t="n">
-        <v>247.0279537473368</v>
+        <v>185.3177663406039</v>
       </c>
       <c r="D28" t="n">
-        <v>145.5712943756561</v>
+        <v>164.0272587594507</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5560.712727770496</v>
+        <v>5934.265389824087</v>
       </c>
       <c r="B29" t="n">
-        <v>305.5494673916983</v>
+        <v>346.4583244888966</v>
       </c>
       <c r="C29" t="n">
-        <v>199.185650249887</v>
+        <v>219.9231786735873</v>
       </c>
       <c r="D29" t="n">
-        <v>134.3841217620326</v>
+        <v>149.8274646099043</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3535.190601999941</v>
+        <v>4193.924967920159</v>
       </c>
       <c r="B30" t="n">
-        <v>254.9462957997022</v>
+        <v>187.3633410665345</v>
       </c>
       <c r="C30" t="n">
-        <v>183.5563976713468</v>
+        <v>237.4118350135104</v>
       </c>
       <c r="D30" t="n">
-        <v>171.4154032602291</v>
+        <v>140.9670930739501</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4921.48719026032</v>
+        <v>6191.927984488466</v>
       </c>
       <c r="B31" t="n">
-        <v>270.5075413574577</v>
+        <v>326.5676347170769</v>
       </c>
       <c r="C31" t="n">
-        <v>180.3052193059264</v>
+        <v>152.8317395536022</v>
       </c>
       <c r="D31" t="n">
-        <v>133.5211113680331</v>
+        <v>99.25367650454592</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3874.703247277408</v>
+        <v>4033.369442941071</v>
       </c>
       <c r="B32" t="n">
-        <v>251.9429285154754</v>
+        <v>308.1219828907444</v>
       </c>
       <c r="C32" t="n">
-        <v>184.2432140580894</v>
+        <v>173.4496534425595</v>
       </c>
       <c r="D32" t="n">
-        <v>159.2248297255254</v>
+        <v>174.7155044466616</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3365.209807791122</v>
+        <v>5076.778813891905</v>
       </c>
       <c r="B33" t="n">
-        <v>281.2473954042787</v>
+        <v>235.0118107217378</v>
       </c>
       <c r="C33" t="n">
-        <v>160.6013294638412</v>
+        <v>179.5008117926838</v>
       </c>
       <c r="D33" t="n">
-        <v>184.2577202783087</v>
+        <v>105.9910648012135</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5043.891852679747</v>
+        <v>4876.407776977804</v>
       </c>
       <c r="B34" t="n">
-        <v>286.3817439312473</v>
+        <v>270.7311045730235</v>
       </c>
       <c r="C34" t="n">
-        <v>178.0956778169625</v>
+        <v>215.3827214584132</v>
       </c>
       <c r="D34" t="n">
-        <v>136.7685552884628</v>
+        <v>147.3852631070871</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4665.845567368351</v>
+        <v>4475.125806226122</v>
       </c>
       <c r="B35" t="n">
-        <v>342.609326896529</v>
+        <v>253.0503061067726</v>
       </c>
       <c r="C35" t="n">
-        <v>211.5258935269648</v>
+        <v>189.4515496103742</v>
       </c>
       <c r="D35" t="n">
-        <v>184.2317220272812</v>
+        <v>140.3053789367162</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4164.498565906497</v>
+        <v>6145.494816287224</v>
       </c>
       <c r="B36" t="n">
-        <v>271.4842953376209</v>
+        <v>322.9751339606493</v>
       </c>
       <c r="C36" t="n">
-        <v>171.0500544344584</v>
+        <v>242.3866251370197</v>
       </c>
       <c r="D36" t="n">
-        <v>156.1934270067575</v>
+        <v>141.7593500431873</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4608.965367145384</v>
+        <v>5604.988281942416</v>
       </c>
       <c r="B37" t="n">
-        <v>259.3544691789326</v>
+        <v>362.7132194412006</v>
       </c>
       <c r="C37" t="n">
-        <v>181.8850330475196</v>
+        <v>210.673783076294</v>
       </c>
       <c r="D37" t="n">
-        <v>138.5419938683912</v>
+        <v>164.6694187592871</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4980.445285135136</v>
+        <v>4718.203433362023</v>
       </c>
       <c r="B38" t="n">
-        <v>375.9507571354222</v>
+        <v>242.8393186615144</v>
       </c>
       <c r="C38" t="n">
-        <v>204.8846198215406</v>
+        <v>197.6363103605439</v>
       </c>
       <c r="D38" t="n">
-        <v>188.5936337184626</v>
+        <v>130.8650743850901</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4276.5899576426</v>
+        <v>3814.495081269925</v>
       </c>
       <c r="B39" t="n">
-        <v>242.8320453595713</v>
+        <v>196.1254644536162</v>
       </c>
       <c r="C39" t="n">
-        <v>228.470767248121</v>
+        <v>233.7527555131854</v>
       </c>
       <c r="D39" t="n">
-        <v>152.3407553724313</v>
+        <v>156.5888064997174</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6855.277570952981</v>
+        <v>5723.613259955642</v>
       </c>
       <c r="B40" t="n">
-        <v>368.7436132770542</v>
+        <v>358.2460482821252</v>
       </c>
       <c r="C40" t="n">
-        <v>205.5241550220136</v>
+        <v>213.0661590240718</v>
       </c>
       <c r="D40" t="n">
-        <v>124.8905303734627</v>
+        <v>159.4914480582309</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4327.838788438657</v>
+        <v>5426.333359442152</v>
       </c>
       <c r="B41" t="n">
-        <v>257.8203857192619</v>
+        <v>287.9275050006977</v>
       </c>
       <c r="C41" t="n">
-        <v>245.6358482784032</v>
+        <v>198.3184561001557</v>
       </c>
       <c r="D41" t="n">
-        <v>162.0812680408142</v>
+        <v>128.6231503496672</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4134.309397185984</v>
+        <v>6854.416276612737</v>
       </c>
       <c r="B42" t="n">
-        <v>294.7907096254976</v>
+        <v>339.5087528826947</v>
       </c>
       <c r="C42" t="n">
-        <v>186.2511013588301</v>
+        <v>240.5488235753697</v>
       </c>
       <c r="D42" t="n">
-        <v>172.2168178096049</v>
+        <v>124.3829819925229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4116.489183591022</v>
+        <v>5519.908893505078</v>
       </c>
       <c r="B43" t="n">
-        <v>289.3436756006079</v>
+        <v>284.2602669551711</v>
       </c>
       <c r="C43" t="n">
-        <v>227.7447108209644</v>
+        <v>195.3722818791551</v>
       </c>
       <c r="D43" t="n">
-        <v>179.9512054805696</v>
+        <v>122.1947838367589</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4752.573694911572</v>
+        <v>5812.679976960413</v>
       </c>
       <c r="B44" t="n">
-        <v>286.5690297435673</v>
+        <v>393.0155345617394</v>
       </c>
       <c r="C44" t="n">
-        <v>181.3835865389254</v>
+        <v>176.5530659454782</v>
       </c>
       <c r="D44" t="n">
-        <v>147.1311680971047</v>
+        <v>155.9591666594987</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4522.221012960127</v>
+        <v>2358.791032646498</v>
       </c>
       <c r="B45" t="n">
-        <v>290.1188708918421</v>
+        <v>199.5836013900623</v>
       </c>
       <c r="C45" t="n">
-        <v>232.648788820114</v>
+        <v>166.2960821535796</v>
       </c>
       <c r="D45" t="n">
-        <v>168.372089101497</v>
+        <v>176.4190290882778</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6247.209037701768</v>
+        <v>2805.316522659203</v>
       </c>
       <c r="B46" t="n">
-        <v>350.2905205248156</v>
+        <v>210.294318940217</v>
       </c>
       <c r="C46" t="n">
-        <v>145.3727723199078</v>
+        <v>168.4182881983935</v>
       </c>
       <c r="D46" t="n">
-        <v>121.188239019299</v>
+        <v>167.2836082406685</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3083.866228211979</v>
+        <v>4799.66348757427</v>
       </c>
       <c r="B47" t="n">
-        <v>277.5572665548648</v>
+        <v>327.8877885792913</v>
       </c>
       <c r="C47" t="n">
-        <v>180.139246061254</v>
+        <v>176.0657656101837</v>
       </c>
       <c r="D47" t="n">
-        <v>196.1649665900912</v>
+        <v>159.113266666036</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5395.30398721223</v>
+        <v>5481.531930333672</v>
       </c>
       <c r="B48" t="n">
-        <v>310.8605946914972</v>
+        <v>275.2080967925227</v>
       </c>
       <c r="C48" t="n">
-        <v>235.1112322033632</v>
+        <v>190.5025549415579</v>
       </c>
       <c r="D48" t="n">
-        <v>150.9290121239464</v>
+        <v>116.6524120156672</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4254.06864235531</v>
+        <v>4446.618750085127</v>
       </c>
       <c r="B49" t="n">
-        <v>260.7734581637116</v>
+        <v>273.760029201124</v>
       </c>
       <c r="C49" t="n">
-        <v>242.9153492892245</v>
+        <v>161.7423283605575</v>
       </c>
       <c r="D49" t="n">
-        <v>165.3103389475039</v>
+        <v>138.2471600005978</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3745.169363840002</v>
+        <v>6067.398239699472</v>
       </c>
       <c r="B50" t="n">
-        <v>269.8216399098864</v>
+        <v>300.8542034914324</v>
       </c>
       <c r="C50" t="n">
-        <v>168.4157823826887</v>
+        <v>211.1937319486963</v>
       </c>
       <c r="D50" t="n">
-        <v>168.2293816989203</v>
+        <v>118.8414526414741</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4095.394501002896</v>
+        <v>6322.9830926214</v>
       </c>
       <c r="B51" t="n">
-        <v>300.3891509243474</v>
+        <v>331.2980776498941</v>
       </c>
       <c r="C51" t="n">
-        <v>194.0367297985633</v>
+        <v>232.2640057816323</v>
       </c>
       <c r="D51" t="n">
-        <v>177.9752007575862</v>
+        <v>134.6881246898658</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5238.115835241648</v>
+        <v>4603.535073643502</v>
       </c>
       <c r="B52" t="n">
-        <v>334.7120997512566</v>
+        <v>305.6844418426081</v>
       </c>
       <c r="C52" t="n">
-        <v>222.4991002701923</v>
+        <v>188.5992199126504</v>
       </c>
       <c r="D52" t="n">
-        <v>164.601582598962</v>
+        <v>161.056441284989</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5701.416746005758</v>
+        <v>4462.315833996377</v>
       </c>
       <c r="B53" t="n">
-        <v>297.8438382094454</v>
+        <v>284.9842960683523</v>
       </c>
       <c r="C53" t="n">
-        <v>222.2911845770309</v>
+        <v>166.2319996010016</v>
       </c>
       <c r="D53" t="n">
-        <v>131.680780474482</v>
+        <v>145.2716515661839</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5642.553030615432</v>
+        <v>5303.495755183319</v>
       </c>
       <c r="B54" t="n">
-        <v>327.2100804166413</v>
+        <v>336.9581147944488</v>
       </c>
       <c r="C54" t="n">
-        <v>221.2763426022549</v>
+        <v>197.7166555421311</v>
       </c>
       <c r="D54" t="n">
-        <v>147.5858925883857</v>
+        <v>156.4058941601969</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4518.621917062968</v>
+        <v>4317.890379467585</v>
       </c>
       <c r="B55" t="n">
-        <v>332.5025160488188</v>
+        <v>335.5516507371507</v>
       </c>
       <c r="C55" t="n">
-        <v>155.9839692051638</v>
+        <v>150.3272692066299</v>
       </c>
       <c r="D55" t="n">
-        <v>170.8843502947734</v>
+        <v>167.0918534003308</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5896.399703520387</v>
+        <v>4825.072007925428</v>
       </c>
       <c r="B56" t="n">
-        <v>340.505886606561</v>
+        <v>288.4750339675315</v>
       </c>
       <c r="C56" t="n">
-        <v>154.3389203717914</v>
+        <v>156.8253732076046</v>
       </c>
       <c r="D56" t="n">
-        <v>129.894390113732</v>
+        <v>129.9134243263363</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5162.072913899416</v>
+        <v>5535.571688693568</v>
       </c>
       <c r="B57" t="n">
-        <v>279.2647543000846</v>
+        <v>312.9150426850317</v>
       </c>
       <c r="C57" t="n">
-        <v>201.5564865959187</v>
+        <v>156.4252694920661</v>
       </c>
       <c r="D57" t="n">
-        <v>135.0966301404773</v>
+        <v>117.0639131423928</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5549.878807891817</v>
+        <v>4350.507777149798</v>
       </c>
       <c r="B58" t="n">
-        <v>375.5932556580255</v>
+        <v>242.0820239588815</v>
       </c>
       <c r="C58" t="n">
-        <v>206.1828608204748</v>
+        <v>225.9469376244147</v>
       </c>
       <c r="D58" t="n">
-        <v>170.391440598523</v>
+        <v>156.6731375042553</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6589.105541537459</v>
+        <v>4760.352965150912</v>
       </c>
       <c r="B59" t="n">
-        <v>352.3374149748431</v>
+        <v>324.3416426696068</v>
       </c>
       <c r="C59" t="n">
-        <v>179.402570621425</v>
+        <v>215.7404804041033</v>
       </c>
       <c r="D59" t="n">
-        <v>119.2843865317567</v>
+        <v>177.5775964634024</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5658.872059716831</v>
+        <v>6387.986441684528</v>
       </c>
       <c r="B60" t="n">
-        <v>333.2604286383348</v>
+        <v>389.3133813468136</v>
       </c>
       <c r="C60" t="n">
-        <v>232.3206909148263</v>
+        <v>209.2575271834944</v>
       </c>
       <c r="D60" t="n">
-        <v>152.6082122475742</v>
+        <v>149.9533731874854</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6707.359921208767</v>
+        <v>4984.874357122745</v>
       </c>
       <c r="B61" t="n">
-        <v>356.4700458816858</v>
+        <v>340.1113446044977</v>
       </c>
       <c r="C61" t="n">
-        <v>248.6689237767673</v>
+        <v>185.9353666483861</v>
       </c>
       <c r="D61" t="n">
-        <v>133.9365989563757</v>
+        <v>163.2308101898517</v>
       </c>
     </row>
   </sheetData>
